--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_OV_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_OV_Fiets.xlsx
@@ -5454,7 +5454,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>0.8701248430451705</v>
+        <v>0.8701248430451706</v>
       </c>
       <c r="C300">
         <v>0.8155391945658543</v>
@@ -7007,7 +7007,7 @@
         <v>0.5735450794366238</v>
       </c>
       <c r="D391">
-        <v>0.6030650823670005</v>
+        <v>0.6030650823670006</v>
       </c>
       <c r="E391">
         <v>0.7456046569020811</v>
